--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_28_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_28_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_12</t>
+          <t>model_28_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9789246832474787</v>
+        <v>0.9619096092660533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7512131944522833</v>
+        <v>0.8280076834571376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7843078331156267</v>
+        <v>0.9618027656921432</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9744313361908581</v>
+        <v>0.9161148741201979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.959179607615213</v>
+        <v>0.9589515701357948</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14093074016702</v>
+        <v>0.2547106182280242</v>
       </c>
       <c r="H2" t="n">
-        <v>1.663638514255487</v>
+        <v>1.150113412673919</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3754158135899405</v>
+        <v>0.1008829417273764</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3828376746051549</v>
+        <v>0.1276253586644543</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3791272429537517</v>
+        <v>0.1142541445713042</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4470266992177669</v>
+        <v>0.500240680837733</v>
       </c>
       <c r="M2" t="n">
-        <v>0.37540743222134</v>
+        <v>0.5046886349305126</v>
       </c>
       <c r="N2" t="n">
-        <v>1.024086076288596</v>
+        <v>1.043531875124511</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3913893038115185</v>
+        <v>0.5261742749690037</v>
       </c>
       <c r="P2" t="n">
-        <v>93.91897342754727</v>
+        <v>92.73525441741945</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.7683855466163</v>
+        <v>147.5846665364885</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_11</t>
+          <t>model_28_9_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9796231117160235</v>
+        <v>0.9555023722700688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7512071002421862</v>
+        <v>0.8279025300950084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801337346135082</v>
+        <v>0.9736647805315045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9763185168120087</v>
+        <v>0.9322074343503758</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9622965413099317</v>
+        <v>0.9689776005963956</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1362603457818947</v>
+        <v>0.2975558415227854</v>
       </c>
       <c r="H3" t="n">
-        <v>1.663679266266468</v>
+        <v>1.150816573690663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3457756621760668</v>
+        <v>0.06955410409050017</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3545810615121058</v>
+        <v>0.1031416525286529</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3501781219602768</v>
+        <v>0.08634770484848593</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4798247005970185</v>
+        <v>0.5368363786600459</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3691345903351441</v>
+        <v>0.5454867931699038</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023287872324545</v>
+        <v>1.05085443169135</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3848494140596546</v>
+        <v>0.568709295268476</v>
       </c>
       <c r="P3" t="n">
-        <v>93.98637583195463</v>
+        <v>92.42430673802556</v>
       </c>
       <c r="Q3" t="n">
-        <v>148.8357879510237</v>
+        <v>147.2737188570946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_13</t>
+          <t>model_28_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9781856728464369</v>
+        <v>0.9667425192578729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7511164908404252</v>
+        <v>0.8272704595615371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7683902623900634</v>
+        <v>0.9498655507302904</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9726651497315083</v>
+        <v>0.8979818624330346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9562645274448874</v>
+        <v>0.9483322295065892</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1458725061216174</v>
+        <v>0.2223929268592216</v>
       </c>
       <c r="H4" t="n">
-        <v>1.664285171753261</v>
+        <v>1.155043232258403</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4031206108972816</v>
+        <v>0.1324103908530858</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4092826512399853</v>
+        <v>0.1552134691425503</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4062016105283415</v>
+        <v>0.1438120030208229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4174823857606421</v>
+        <v>0.4664868739180252</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3819325936884903</v>
+        <v>0.4715855456428045</v>
       </c>
       <c r="N4" t="n">
-        <v>1.024930659604072</v>
+        <v>1.038008549419574</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3981922549112717</v>
+        <v>0.4916619186374763</v>
       </c>
       <c r="P4" t="n">
-        <v>93.85004456903465</v>
+        <v>93.00661904160401</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.6994566881037</v>
+        <v>147.856031160673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_10</t>
+          <t>model_28_9_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.980248103730319</v>
+        <v>0.9470550597531037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7510608263870109</v>
+        <v>0.8266226011775214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8194473372822166</v>
+        <v>0.9849873667289425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9783239489826571</v>
+        <v>0.9441595987871102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9656099375192035</v>
+        <v>0.9776159980939353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1320810213044762</v>
+        <v>0.3540430592200295</v>
       </c>
       <c r="H5" t="n">
-        <v>1.664657400209554</v>
+        <v>1.159375464255429</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3142549205616864</v>
+        <v>0.03964995463420352</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3245538768879757</v>
+        <v>0.08495726933728123</v>
       </c>
       <c r="K5" t="n">
-        <v>0.319404317588352</v>
+        <v>0.06230360085197832</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5162394183112665</v>
+        <v>0.576011501623423</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3634295272875833</v>
+        <v>0.5950151756216219</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022573595736778</v>
+        <v>1.06050850313931</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3789014746670504</v>
+        <v>0.6203462034990496</v>
       </c>
       <c r="P5" t="n">
-        <v>94.04867949386276</v>
+        <v>92.07667347406135</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.8980916129318</v>
+        <v>146.9260855931304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_14</t>
+          <t>model_28_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9774309484102831</v>
+        <v>0.9703385627426669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7509463679669566</v>
+        <v>0.825920903592593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7535865672353785</v>
+        <v>0.9379927934197059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9710204669565584</v>
+        <v>0.8788366468585224</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9535516817052437</v>
+        <v>0.9374668570960545</v>
       </c>
       <c r="G6" t="n">
-        <v>0.150919351901364</v>
+        <v>0.1983461675181465</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66542278419149</v>
+        <v>1.164067719236866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.428886689197254</v>
+        <v>0.1637676004943246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4339083623731517</v>
+        <v>0.1843415771209128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431397686943649</v>
+        <v>0.1740546660001645</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3908764992767453</v>
+        <v>0.4353980142353979</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3884833997758</v>
+        <v>0.4453607161820028</v>
       </c>
       <c r="N6" t="n">
-        <v>1.025793201816819</v>
+        <v>1.033898785436952</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4050219423757563</v>
+        <v>0.4643206438936475</v>
       </c>
       <c r="P6" t="n">
-        <v>93.78201935642866</v>
+        <v>93.2354829080454</v>
       </c>
       <c r="Q6" t="n">
-        <v>148.6314314754977</v>
+        <v>148.0848950271144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_9</t>
+          <t>model_28_9_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9807565071748435</v>
+        <v>0.9729564238149571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.750727036082949</v>
+        <v>0.8241328217577431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.838564184718837</v>
+        <v>0.9262495889452561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9804406439709985</v>
+        <v>0.8592378988785929</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9691073642871951</v>
+        <v>0.9265390200134938</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1286813251299584</v>
+        <v>0.1808405184736002</v>
       </c>
       <c r="H7" t="n">
-        <v>1.666889457509779</v>
+        <v>1.176024630699867</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2809817287839763</v>
+        <v>0.1947826473728599</v>
       </c>
       <c r="J7" t="n">
-        <v>0.292860762486929</v>
+        <v>0.2141597029695504</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2869212940181156</v>
+        <v>0.2044711930637568</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5566581215283564</v>
+        <v>0.4076500880520683</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3587217934973542</v>
+        <v>0.4252534755573436</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02199256322875</v>
+        <v>1.030906944211478</v>
       </c>
       <c r="O7" t="n">
-        <v>0.373993322903019</v>
+        <v>0.4433573964078703</v>
       </c>
       <c r="P7" t="n">
-        <v>94.10083255758794</v>
+        <v>93.42027949906084</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.950244676657</v>
+        <v>148.2696916181299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_15</t>
+          <t>model_28_9_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9766789130562437</v>
+        <v>0.9358876230047185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7507257517207494</v>
+        <v>0.8236476671776817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7398771079199846</v>
+        <v>0.9944881655955605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9694949264175159</v>
+        <v>0.9477286634127237</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9510374437935856</v>
+        <v>0.9830989748143257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1559482157766303</v>
+        <v>0.4287197601777987</v>
       </c>
       <c r="H8" t="n">
-        <v>1.666898046045722</v>
+        <v>1.179268861610669</v>
       </c>
       <c r="I8" t="n">
-        <v>0.45274823177022</v>
+        <v>0.01455733848562018</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4567501657948113</v>
+        <v>0.07952718685050975</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4547491549695175</v>
+        <v>0.04704229081003525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3669154086820827</v>
+        <v>0.6183373748869734</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3949027928194866</v>
+        <v>0.6547669510427345</v>
       </c>
       <c r="N8" t="n">
-        <v>1.026652670792864</v>
+        <v>1.073271287994607</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4117146222712881</v>
+        <v>0.6826417357030657</v>
       </c>
       <c r="P8" t="n">
-        <v>93.71646255398011</v>
+        <v>91.69390362637382</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.5658746730491</v>
+        <v>146.5433157454429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_16</t>
+          <t>model_28_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.975943006479651</v>
+        <v>0.9748021358090786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7504722175616041</v>
+        <v>0.8220439797722384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.727225558758946</v>
+        <v>0.9147106433843316</v>
       </c>
       <c r="E9" t="n">
-        <v>0.968085055418451</v>
+        <v>0.8395445718024743</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9487155505543463</v>
+        <v>0.9156822291751228</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1608692264428431</v>
+        <v>0.1684982338701878</v>
       </c>
       <c r="H9" t="n">
-        <v>1.668593430135344</v>
+        <v>1.18999272667517</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4747684640766189</v>
+        <v>0.2252582248253007</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4778600579191802</v>
+        <v>0.2441217243055786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4763141848675115</v>
+        <v>0.2346899701066596</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3453440012799687</v>
+        <v>0.382545746069153</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4010850613558714</v>
+        <v>0.4104853637709728</v>
       </c>
       <c r="N9" t="n">
-        <v>1.027493706880399</v>
+        <v>1.028797559075339</v>
       </c>
       <c r="O9" t="n">
-        <v>0.418160082778327</v>
+        <v>0.4279605755285478</v>
       </c>
       <c r="P9" t="n">
-        <v>93.65432700435406</v>
+        <v>93.56166002145443</v>
       </c>
       <c r="Q9" t="n">
-        <v>148.5037391234231</v>
+        <v>148.4110721405235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_17</t>
+          <t>model_28_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9752327686501572</v>
+        <v>0.9760424491525312</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501994393421987</v>
+        <v>0.8197645878961966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.715586061208912</v>
+        <v>0.903465533452791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9667860516182054</v>
+        <v>0.8200248747949507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9465778097441707</v>
+        <v>0.9050122792453881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1656185900790131</v>
+        <v>0.1602042528314019</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670417499344536</v>
+        <v>1.205235030645896</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4950272036759414</v>
+        <v>0.2549577512569359</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4973099438381897</v>
+        <v>0.2738195796223402</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4961688636729418</v>
+        <v>0.2643886944153216</v>
       </c>
       <c r="L10" t="n">
-        <v>0.325916446921452</v>
+        <v>0.3596933095654629</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4069626396599731</v>
+        <v>0.4002552346083708</v>
       </c>
       <c r="N10" t="n">
-        <v>1.028305407256963</v>
+        <v>1.027380058111393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4242878817590987</v>
+        <v>0.4172949285882071</v>
       </c>
       <c r="P10" t="n">
-        <v>93.59613556880061</v>
+        <v>93.66261139537549</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.4455476878696</v>
+        <v>148.5120235144445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_8</t>
+          <t>model_28_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9810923577814139</v>
+        <v>0.9768123209858449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501456526231227</v>
+        <v>0.8173822432929539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8585612224302107</v>
+        <v>0.8926068888371037</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9826565172818875</v>
+        <v>0.8008874217125626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9727672004854594</v>
+        <v>0.8946301117854032</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1264354905773725</v>
+        <v>0.1550561163370992</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670777171382662</v>
+        <v>1.221165779977468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2461765511540047</v>
+        <v>0.2836365818542954</v>
       </c>
       <c r="J11" t="n">
-        <v>0.259682658543262</v>
+        <v>0.3029358775112373</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2529298616371924</v>
+        <v>0.2932864053840667</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6015271084842901</v>
+        <v>0.3391053470808139</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3555776857135055</v>
+        <v>0.3937716550706757</v>
       </c>
       <c r="N11" t="n">
-        <v>1.021608733964098</v>
+        <v>1.026500204587606</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3707153639416114</v>
+        <v>0.4105353296467325</v>
       </c>
       <c r="P11" t="n">
-        <v>94.1360461135928</v>
+        <v>93.72793637339873</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.9854582326618</v>
+        <v>148.5773484924678</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_18</t>
+          <t>model_28_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9745546169192864</v>
+        <v>0.9772209784989596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7499176879605569</v>
+        <v>0.8149650519793946</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7049051779972574</v>
+        <v>0.8822151561453688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9655922012235543</v>
+        <v>0.7823041024754472</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9446146983157163</v>
+        <v>0.8846209529741363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1701533938259482</v>
+        <v>0.1523234216652069</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67230157213092</v>
+        <v>1.237329549421382</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5136174590323725</v>
+        <v>0.3110822486043387</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5151853757468087</v>
+        <v>0.3312090994673117</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5144016385190331</v>
+        <v>0.3211458845807813</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3084192450064339</v>
+        <v>0.3204960261468031</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4124965379563181</v>
+        <v>0.3902863329213655</v>
       </c>
       <c r="N12" t="n">
-        <v>1.02908043780653</v>
+        <v>1.02603316742976</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4300573695626678</v>
+        <v>0.4069016301179146</v>
       </c>
       <c r="P12" t="n">
-        <v>93.54210986430316</v>
+        <v>93.763498489056</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.3915219833722</v>
+        <v>148.612910608125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_19</t>
+          <t>model_28_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9739127994459517</v>
+        <v>0.9773559358318176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.74963465991988</v>
+        <v>0.8125649553044514</v>
       </c>
       <c r="D13" t="n">
-        <v>0.695127460056546</v>
+        <v>0.8723510894922992</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9644977438149606</v>
+        <v>0.7644097355008661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9428163572241719</v>
+        <v>0.8750505445531928</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1744452302254351</v>
+        <v>0.1514209613589644</v>
       </c>
       <c r="H13" t="n">
-        <v>1.674194181942151</v>
+        <v>1.253379006938156</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5306357401725166</v>
+        <v>0.3371342934549233</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5315726039722656</v>
+        <v>0.358434128687351</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5311040771801014</v>
+        <v>0.3477841465301483</v>
       </c>
       <c r="L13" t="n">
-        <v>0.292675423247118</v>
+        <v>0.3036304441993816</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4176664102192503</v>
+        <v>0.3891284638252057</v>
       </c>
       <c r="N13" t="n">
-        <v>1.029813943490341</v>
+        <v>1.025878930477923</v>
       </c>
       <c r="O13" t="n">
-        <v>0.435447333990944</v>
+        <v>0.4056944681372119</v>
       </c>
       <c r="P13" t="n">
-        <v>93.49228890701826</v>
+        <v>93.77538299474165</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.3417010260873</v>
+        <v>148.6247951138107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_20</t>
+          <t>model_28_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9733095695498206</v>
+        <v>0.9772871353017911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7493560588633301</v>
+        <v>0.8102204925657801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6861929148982315</v>
+        <v>0.8630567541292813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9634964694070555</v>
+        <v>0.7473058666153937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9411721030362784</v>
+        <v>0.8659663797113615</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1784790313184814</v>
+        <v>0.1518810308200482</v>
       </c>
       <c r="H14" t="n">
-        <v>1.676057188490139</v>
+        <v>1.269056440066909</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5461864650231911</v>
+        <v>0.3616816176215104</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5465646101570768</v>
+        <v>0.384456470290391</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5463754040966839</v>
+        <v>0.3730689987542579</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2784917606540739</v>
+        <v>0.2883656458466798</v>
       </c>
       <c r="M14" t="n">
-        <v>0.422467787314585</v>
+        <v>0.3897191691719156</v>
       </c>
       <c r="N14" t="n">
-        <v>1.030503349085919</v>
+        <v>1.025957559655096</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4404531156494478</v>
+        <v>0.4063103210334599</v>
       </c>
       <c r="P14" t="n">
-        <v>93.44656831253583</v>
+        <v>93.76931551314502</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2959804316049</v>
+        <v>148.618727632214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_7</t>
+          <t>model_28_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.981183680647873</v>
+        <v>0.9770699618426003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.749241396564476</v>
+        <v>0.8079594463346504</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8792402469405113</v>
+        <v>0.8543539389897247</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9849531914316931</v>
+        <v>0.7310680870097382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9765561100611583</v>
+        <v>0.8573995272523387</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1258248141488577</v>
+        <v>0.1533332707416493</v>
       </c>
       <c r="H15" t="n">
-        <v>1.676823935810549</v>
+        <v>1.284176066625634</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2101843641269142</v>
+        <v>0.3846666742230409</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2252947297331935</v>
+        <v>0.4091611175607018</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2177396354459526</v>
+        <v>0.3969139643866156</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6513218160794776</v>
+        <v>0.274559511767848</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3547179360405359</v>
+        <v>0.3915779242266465</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02150436497386</v>
+        <v>1.026205757894171</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3698190129451363</v>
+        <v>0.4082482071390241</v>
       </c>
       <c r="P15" t="n">
-        <v>94.14572940676268</v>
+        <v>93.75028297274766</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.9951415258317</v>
+        <v>148.5996950918167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_21</t>
+          <t>model_28_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9727458324039098</v>
+        <v>0.9767481106522589</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7490858822225016</v>
+        <v>0.8058008552053991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6780431930152724</v>
+        <v>0.8462512646802627</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9625817999444374</v>
+        <v>0.7157410996068674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9396711904819791</v>
+        <v>0.8493664656740056</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1822487442089581</v>
+        <v>0.1554854911334509</v>
       </c>
       <c r="H16" t="n">
-        <v>1.677863860931409</v>
+        <v>1.298610575446336</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5603711918745051</v>
+        <v>0.4060666953242866</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5602598870285995</v>
+        <v>0.4324800581240127</v>
       </c>
       <c r="K16" t="n">
-        <v>0.56031541803046</v>
+        <v>0.4192731771983436</v>
       </c>
       <c r="L16" t="n">
-        <v>0.265724051882433</v>
+        <v>0.2620875472975188</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4269060133202133</v>
+        <v>0.3943164860026156</v>
       </c>
       <c r="N16" t="n">
-        <v>1.031147620109817</v>
+        <v>1.02657358782599</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4450802861245301</v>
+        <v>0.4111033551594006</v>
       </c>
       <c r="P16" t="n">
-        <v>93.40476559720587</v>
+        <v>93.72240571264805</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.2541777162749</v>
+        <v>148.5718178317171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_22</t>
+          <t>model_28_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9722216332389387</v>
+        <v>0.9763554151604263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.748826956401767</v>
+        <v>0.8037570761632544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6706205317496773</v>
+        <v>0.8387403610774872</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9617478500358275</v>
+        <v>0.7013496502884372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9383033839827655</v>
+        <v>0.8418697322203713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1857540664388344</v>
+        <v>0.1581114476955311</v>
       </c>
       <c r="H17" t="n">
-        <v>1.679595299086905</v>
+        <v>1.312277335311895</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5732904575960077</v>
+        <v>0.4259037873077469</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5727465561065207</v>
+        <v>0.4543756428501748</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5730191838848613</v>
+        <v>0.4401395750278735</v>
       </c>
       <c r="L17" t="n">
-        <v>0.254224794173929</v>
+        <v>0.2508285557060667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4309919563505036</v>
+        <v>0.3976323021278969</v>
       </c>
       <c r="N17" t="n">
-        <v>1.031746704869784</v>
+        <v>1.027022382673799</v>
       </c>
       <c r="O17" t="n">
-        <v>0.449340176208688</v>
+        <v>0.4145603324418207</v>
       </c>
       <c r="P17" t="n">
-        <v>93.36666340724958</v>
+        <v>93.68891025889333</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2160755263186</v>
+        <v>148.5383223779624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_23</t>
+          <t>model_28_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9717362633816654</v>
+        <v>0.975918296872708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7485811819665095</v>
+        <v>0.8018350874703615</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6638686422981925</v>
+        <v>0.8318065093259788</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9609885263378682</v>
+        <v>0.6879009375160621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9370587356362605</v>
+        <v>0.8349043246499347</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1889997369093438</v>
+        <v>0.1610344596982482</v>
       </c>
       <c r="H18" t="n">
-        <v>1.68123879386716</v>
+        <v>1.325129682551214</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5850422337884983</v>
+        <v>0.4442168242296323</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5841158525613234</v>
+        <v>0.4748369197827385</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5845790947159293</v>
+        <v>0.4595270811074836</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2438745835450566</v>
+        <v>0.2406747148540708</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4347409998025765</v>
+        <v>0.4012909912996406</v>
       </c>
       <c r="N18" t="n">
-        <v>1.032301413278097</v>
+        <v>1.027521946431191</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4532488242021054</v>
+        <v>0.4183747795861362</v>
       </c>
       <c r="P18" t="n">
-        <v>93.33201931187503</v>
+        <v>93.65227380301427</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.1814314309441</v>
+        <v>148.5016859220833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_24</t>
+          <t>model_28_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9712883430319139</v>
+        <v>0.9754568459115588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7483496236869562</v>
+        <v>0.8000379604240112</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6577337879904437</v>
+        <v>0.8254265505001238</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9602979676897371</v>
+        <v>0.6753834106484649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9359273150743951</v>
+        <v>0.828456382550987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1919949823506155</v>
+        <v>0.1641201844002393</v>
       </c>
       <c r="H19" t="n">
-        <v>1.682787225148759</v>
+        <v>1.337147079385167</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5957200500229373</v>
+        <v>0.4610669712655239</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5944555351119032</v>
+        <v>0.4938814624154594</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5950873807264556</v>
+        <v>0.4774742744885145</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2345661101360237</v>
+        <v>0.2332453097012837</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4381723203839051</v>
+        <v>0.4051174945620583</v>
       </c>
       <c r="N19" t="n">
-        <v>1.032813322249241</v>
+        <v>1.028049318958218</v>
       </c>
       <c r="O19" t="n">
-        <v>0.456826223204394</v>
+        <v>0.4223641850143887</v>
       </c>
       <c r="P19" t="n">
-        <v>93.30057208177277</v>
+        <v>93.61431257567841</v>
       </c>
       <c r="Q19" t="n">
-        <v>148.1499842008418</v>
+        <v>148.4637246947474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_6</t>
+          <t>model_28_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.980938077933318</v>
+        <v>0.9749862949298269</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7479197420755423</v>
+        <v>0.7983654966803136</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9003085013832204</v>
+        <v>0.8195733798293241</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9873040650293347</v>
+        <v>0.6637767570612356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9804251635115634</v>
+        <v>0.822507129436628</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1274671606319827</v>
+        <v>0.1672667609817688</v>
       </c>
       <c r="H20" t="n">
-        <v>1.685661845463707</v>
+        <v>1.34833085214026</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1735147159112257</v>
+        <v>0.4765258149855578</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1900952766788675</v>
+        <v>0.5115401749873014</v>
       </c>
       <c r="K20" t="n">
-        <v>0.181805057608836</v>
+        <v>0.4940334176193945</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7065856746177901</v>
+        <v>0.2265643313352829</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3570254341527823</v>
+        <v>0.4089825925168073</v>
       </c>
       <c r="N20" t="n">
-        <v>1.021785053790494</v>
+        <v>1.028587091508769</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3722247460292006</v>
+        <v>0.4263938281909272</v>
       </c>
       <c r="P20" t="n">
-        <v>94.11979302245919</v>
+        <v>93.57633073971473</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.9692051415282</v>
+        <v>148.4257428587838</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_5</t>
+          <t>model_28_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9802378741464884</v>
+        <v>0.9745179480963889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7460622600615912</v>
+        <v>0.7968154484112795</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9213486824687063</v>
+        <v>0.8142166670253222</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9896717231238498</v>
+        <v>0.653048407449924</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9843051467233702</v>
+        <v>0.8170337338070981</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1321494265786541</v>
+        <v>0.1703985984135073</v>
       </c>
       <c r="H21" t="n">
-        <v>1.698082836243917</v>
+        <v>1.358696032052608</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1368939298419676</v>
+        <v>0.4906734608936609</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1546445106188853</v>
+        <v>0.5278626094196371</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1457689675111969</v>
+        <v>0.5092680596658996</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7679125162210828</v>
+        <v>0.2205598183447552</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3635236258878562</v>
+        <v>0.4127936511303285</v>
       </c>
       <c r="N21" t="n">
-        <v>1.022585286689728</v>
+        <v>1.029122345032698</v>
       </c>
       <c r="O21" t="n">
-        <v>0.378999579239548</v>
+        <v>0.4303671314596049</v>
       </c>
       <c r="P21" t="n">
-        <v>94.04764395422296</v>
+        <v>93.53922977978719</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.897056073292</v>
+        <v>148.3886418988562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_4</t>
+          <t>model_28_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9789335384202194</v>
+        <v>0.9740600730678485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7435213013653398</v>
+        <v>0.7953838635254995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9417852260378237</v>
+        <v>0.8093241678353447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9920058614619019</v>
+        <v>0.6431625296970802</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9881014831673655</v>
+        <v>0.8120107421541155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1408715255861296</v>
+        <v>0.1734604108376782</v>
       </c>
       <c r="H22" t="n">
-        <v>1.715074238745789</v>
+        <v>1.368269046775661</v>
       </c>
       <c r="I22" t="n">
-        <v>0.101323784936894</v>
+        <v>0.5035950694767782</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1196956333440732</v>
+        <v>0.5429032817758722</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1105097628526651</v>
+        <v>0.5232490478888081</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8359500131590707</v>
+        <v>0.215159608590314</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3753285568487024</v>
+        <v>0.4164857870776363</v>
       </c>
       <c r="N22" t="n">
-        <v>1.024075956091178</v>
+        <v>1.029645630779602</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3913070705509733</v>
+        <v>0.4342164492779647</v>
       </c>
       <c r="P22" t="n">
-        <v>93.91981394004782</v>
+        <v>93.50361177048416</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.7692260591168</v>
+        <v>148.3530238895532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_3</t>
+          <t>model_28_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9768356820149922</v>
+        <v>0.9736183579949216</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7401125579923489</v>
+        <v>0.7940656508785372</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9608330202599261</v>
+        <v>0.8048636303213357</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9942388467707792</v>
+        <v>0.6340731728089308</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9916861906264962</v>
+        <v>0.8074103112873501</v>
       </c>
       <c r="G23" t="n">
-        <v>0.154899901027624</v>
+        <v>0.1764141615642514</v>
       </c>
       <c r="H23" t="n">
-        <v>1.737868521376799</v>
+        <v>1.377083940815708</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06817078143066234</v>
+        <v>0.5153758215194985</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08626131274526273</v>
+        <v>0.556732103282816</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07721610308170969</v>
+        <v>0.5360538809867009</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9114399273134086</v>
+        <v>0.2103040146100293</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3935732473474588</v>
+        <v>0.4200168586667105</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02647350626858</v>
+        <v>1.030150448005804</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4103284752959776</v>
+        <v>0.4378978458949115</v>
       </c>
       <c r="P23" t="n">
-        <v>93.7299523410064</v>
+        <v>93.46984171531062</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.5793644600754</v>
+        <v>148.3192538343797</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_2</t>
+          <t>model_28_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9737047583552401</v>
+        <v>0.973196939200048</v>
       </c>
       <c r="C24" t="n">
-        <v>0.735606338337055</v>
+        <v>0.7928550601028903</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9774334900564734</v>
+        <v>0.800804331875418</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9962817338277353</v>
+        <v>0.6257371982795954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9948883756432459</v>
+        <v>0.8032061604920278</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1758364019569642</v>
+        <v>0.1792321909860259</v>
       </c>
       <c r="H24" t="n">
-        <v>1.768001632960983</v>
+        <v>1.385179166906717</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03927738690147257</v>
+        <v>0.5260968586834198</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05567331893361754</v>
+        <v>0.569414706163434</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04747519404329969</v>
+        <v>0.5477557086657954</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9951673704174159</v>
+        <v>0.205937390050956</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4193285131695246</v>
+        <v>0.4233582300912856</v>
       </c>
       <c r="N24" t="n">
-        <v>1.030051704736868</v>
+        <v>1.030632069485659</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4371801961048389</v>
+        <v>0.4413814664186232</v>
       </c>
       <c r="P24" t="n">
-        <v>93.47640250112872</v>
+        <v>93.43814631475067</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.3258146201977</v>
+        <v>148.2875584338197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_1</t>
+          <t>model_28_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9692379225480516</v>
+        <v>0.9727982639403078</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7297163506395545</v>
+        <v>0.791745787498394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9901730626341589</v>
+        <v>0.7971145071715494</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9980181517044073</v>
+        <v>0.61810843553651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9974817217403409</v>
+        <v>0.7993705193585047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2057061535675214</v>
+        <v>0.1818981342836397</v>
       </c>
       <c r="H25" t="n">
-        <v>1.807388007815068</v>
+        <v>1.392596877920715</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01710394837042128</v>
+        <v>0.5358420765592607</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02967406504182003</v>
+        <v>0.5810213357183256</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02338899353477883</v>
+        <v>0.5584318270470087</v>
       </c>
       <c r="L25" t="n">
-        <v>1.088043350915542</v>
+        <v>0.2020124776986853</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4535484026733215</v>
+        <v>0.4264951749828358</v>
       </c>
       <c r="N25" t="n">
-        <v>1.035156659945084</v>
+        <v>1.031087698353934</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4728568971497492</v>
+        <v>0.4446519575485779</v>
       </c>
       <c r="P25" t="n">
-        <v>93.16261313503556</v>
+        <v>93.40861690067014</v>
       </c>
       <c r="Q25" t="n">
-        <v>148.0120252541046</v>
+        <v>148.2580290197392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_28_9_0</t>
+          <t>model_28_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9630523069855719</v>
+        <v>0.9724237306429295</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7220851088666612</v>
+        <v>0.7907314080700422</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9971668262383292</v>
+        <v>0.7937643676142134</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9992962525569815</v>
+        <v>0.6111382655391071</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9991672742986959</v>
+        <v>0.795876120142018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2470693933159643</v>
+        <v>0.1844026401677748</v>
       </c>
       <c r="H26" t="n">
-        <v>1.858418156689043</v>
+        <v>1.399380037828891</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004931186181413272</v>
+        <v>0.5446901499830423</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01053715738161514</v>
+        <v>0.5916259624211024</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00773410006195403</v>
+        <v>0.5681581331345031</v>
       </c>
       <c r="L26" t="n">
-        <v>1.193719814557468</v>
+        <v>0.1984787393402247</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4970607541497964</v>
+        <v>0.4294212851824823</v>
       </c>
       <c r="N26" t="n">
-        <v>1.042225934873632</v>
+        <v>1.03151573640808</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5182216595115624</v>
+        <v>0.4477026383173065</v>
       </c>
       <c r="P26" t="n">
-        <v>92.79617207442531</v>
+        <v>93.38126730069895</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.6455841934944</v>
+        <v>148.230679419768</v>
       </c>
     </row>
   </sheetData>
